--- a/result/BO_TransformerCNN_train_loss.xlsx
+++ b/result/BO_TransformerCNN_train_loss.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02582357622320867</v>
+        <v>0.05679649211880233</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005639554879679862</v>
+        <v>0.01506044818088412</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003647482518054959</v>
+        <v>0.005519299646322098</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00282503276054437</v>
+        <v>0.00406481146088077</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.002494402927631098</v>
+        <v>0.003169707889254722</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.002109474972692422</v>
+        <v>0.003851697954814881</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002279930432753948</v>
+        <v>0.002827173864029141</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.001861056140559312</v>
+        <v>0.002509024399720753</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.001613206368508852</v>
+        <v>0.002313765228286179</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.001533521990576345</v>
+        <v>0.002724934017492665</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.001602391014845731</v>
+        <v>0.001685674155467293</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001308353609379588</v>
+        <v>0.001582250543611331</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.001269851969037619</v>
+        <v>0.001687569094873551</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.001289482081321896</v>
+        <v>0.001835216547543597</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.001216559488319844</v>
+        <v>0.001425470880672543</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.001119434061304977</v>
+        <v>0.001329102953766576</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00141798819661037</v>
+        <v>0.00164395374724538</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.001014978761021565</v>
+        <v>0.001531683364495014</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0009281124780601305</v>
+        <v>0.00117162044334691</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.001006946872965071</v>
+        <v>0.00122168445506961</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00093993665488799</v>
+        <v>0.001094916892018066</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.001011177881931265</v>
+        <v>0.001160886496654712</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.001015888920584176</v>
+        <v>0.001304877530330689</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.001004686710237163</v>
+        <v>0.001175316291887106</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0009464724577911612</v>
+        <v>0.001142884755326021</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.001418719079164374</v>
+        <v>0.001168771915318858</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0007579320639100237</v>
+        <v>0.00105324518048696</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0006940160297542914</v>
+        <v>0.001029939522979677</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0007926649347710837</v>
+        <v>0.001040044401047958</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0009137428693874325</v>
+        <v>0.001018827136269667</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0007889904675216207</v>
+        <v>0.001030298141348693</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0007187186399177234</v>
+        <v>0.0009320708030524353</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.000957991587509039</v>
+        <v>0.001041220477135438</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0007150949210174278</v>
+        <v>0.0009468578025310611</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0006895997470969127</v>
+        <v>0.0008271807969625418</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.001009367469103179</v>
+        <v>0.001017286554431646</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0008709083776921034</v>
+        <v>0.0008999579754244122</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.000887429417990562</v>
+        <v>0.0009566673737329742</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.000889570336180946</v>
+        <v>0.0007433917127653128</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0006869087818712513</v>
+        <v>0.0008148501408868469</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0008603850550975443</v>
+        <v>0.0007493157381153044</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.000594543661928684</v>
+        <v>0.0009295127027952629</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.001100828269975156</v>
+        <v>0.0006843936487307979</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0006877418369792091</v>
+        <v>0.0007503540009363657</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0006003964050453052</v>
+        <v>0.0008618752239271998</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0006752634521237471</v>
+        <v>0.0008486691695806156</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0008497470056075448</v>
+        <v>0.000719696271375546</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0006068502948942801</v>
+        <v>0.0007490039122381454</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0006671821359001721</v>
+        <v>0.0008650613287399109</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0006655761341486747</v>
+        <v>0.000666498180200708</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0005065468612883706</v>
+        <v>0.0006527669980907499</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0005921356857718572</v>
+        <v>0.0005822057944978849</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0005531917998847679</v>
+        <v>0.0007555108411784358</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0005517882415336895</v>
+        <v>0.0008319924736599532</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0005438024034612516</v>
+        <v>0.0006944987874836504</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005931959514617284</v>
+        <v>0.000771609756453329</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0005187945444049546</v>
+        <v>0.0005334508585680821</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0006052276914322812</v>
+        <v>0.0006216276120499111</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0004758715304805347</v>
+        <v>0.0007979310156249054</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.001173096054530602</v>
+        <v>0.0007760376433038749</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0007871967091804519</v>
+        <v>0.0006109173054018142</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0006659994402401604</v>
+        <v>0.0006837627694816485</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0005441306954956169</v>
+        <v>0.0004576929441713362</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0005868668305827833</v>
+        <v>0.0006428370770561415</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0004778493867806074</v>
+        <v>0.000667544624642626</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0005158421302191775</v>
+        <v>0.0007283399666376998</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0005768735438157984</v>
+        <v>0.0006395766799000689</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0005377886778164379</v>
+        <v>0.0006057909391284135</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0004631495101586386</v>
+        <v>0.0005971010448345706</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003616404894935179</v>
+        <v>0.0006928175553389082</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0008071647214158227</v>
+        <v>0.0006774784768199067</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0006125079023397782</v>
+        <v>0.0005262676687594608</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0005302723511704244</v>
+        <v>0.000553594323187763</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0005497651262968164</v>
+        <v>0.000537259045731946</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.000478229344893903</v>
+        <v>0.0005745932661268986</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0005818182467423453</v>
+        <v>0.0005813798822365764</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0004433995565539755</v>
+        <v>0.0005593507959745468</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0004026780309438684</v>
+        <v>0.0006636558116931636</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0006235702424998057</v>
+        <v>0.0005902631991160929</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0004013728172470688</v>
+        <v>0.0004934344386415075</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0004214570149501511</v>
+        <v>0.0007173994712543339</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0005082462670212739</v>
+        <v>0.0004619276222185587</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0005195592496999201</v>
+        <v>0.0004856516322607614</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0003612599889906547</v>
+        <v>0.0006138451048827029</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0004424553748818157</v>
+        <v>0.000569223454078199</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0004398350340373079</v>
+        <v>0.0005044143372594661</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0005537329579965444</v>
+        <v>0.0005206906461036566</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0004480293333802944</v>
+        <v>0.000497111959253396</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0004699246623700178</v>
+        <v>0.000598487499404798</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0003823563420982364</v>
+        <v>0.0005476793179123694</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0005782386925519942</v>
+        <v>0.0004455268993225535</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0004290094309247004</v>
+        <v>0.0006048271699522077</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0003936912054830993</v>
+        <v>0.0004990500141441393</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0003970406399854586</v>
+        <v>0.0006105363356888692</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0004850009635530031</v>
+        <v>0.0004592060972805648</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0004846416253382234</v>
+        <v>0.0004620779374531952</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0004228044119207136</v>
+        <v>0.0005347482610580229</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0004194698916431993</v>
+        <v>0.0004534699652916909</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0003961170361270144</v>
+        <v>0.0004665358029659105</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0004159512372180788</v>
+        <v>0.0004540927951934413</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0007282183180267431</v>
+        <v>0.0005645390055261404</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0005097635330875864</v>
+        <v>0.0008136472828978599</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0006267611119172258</v>
+        <v>0.0007460493502135664</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0006880336768099578</v>
+        <v>0.0007846974946336228</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0005578588566879325</v>
+        <v>0.0005007355810614007</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0005108158901299018</v>
+        <v>0.000450167913765075</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.000352869928117317</v>
+        <v>0.0006731713311554896</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0004933496690274955</v>
+        <v>0.0005056658660991657</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0004874315997150769</v>
+        <v>0.0003852585469675515</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0008170153307072797</v>
+        <v>0.0004915110955401112</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0003723552875888491</v>
+        <v>0.0003440429892924096</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0004067729645737864</v>
+        <v>0.0004760626650915418</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0003881027301319811</v>
+        <v>0.0004394851950399408</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0005197358701877221</v>
+        <v>0.0006028933583531233</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0005582013373509392</v>
+        <v>0.0006208778680626314</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0004052016694244565</v>
+        <v>0.0003672410670002467</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0005472106974499686</v>
+        <v>0.0003764425892685804</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0004225264858031624</v>
+        <v>0.0004711878684908945</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0004177591498324316</v>
+        <v>0.0004552723486829729</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0003769954608120399</v>
+        <v>0.0003897651824279985</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0003126186169663862</v>
+        <v>0.000479753050306251</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0003901305217055026</v>
+        <v>0.0004141197845952278</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0003586327731535749</v>
+        <v>0.0004507459137709124</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0004825837729196332</v>
+        <v>0.0004658249896568701</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0005693914085739003</v>
+        <v>0.0004408583098748667</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0003659455637559937</v>
+        <v>0.0003564601686527815</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0003916853254369257</v>
+        <v>0.0004375782968550497</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0003824114587744055</v>
+        <v>0.0008605590454118845</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.000320251852785098</v>
+        <v>0.0003893725605931567</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0004748076668153677</v>
+        <v>0.0003573323158641208</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0005108308960816117</v>
+        <v>0.0003694243633534907</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0004126728383888459</v>
+        <v>0.0002845012554230793</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0005076956534965617</v>
+        <v>0.0003868497623526227</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0003153883601420415</v>
+        <v>0.0004438424537676672</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0004926643550266169</v>
+        <v>0.0004397133925522212</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0003502867708113794</v>
+        <v>0.0003825265393970767</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0004222892296210135</v>
+        <v>0.0004367110844792809</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0003999664042420664</v>
+        <v>0.0004588383036124552</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002953861855959317</v>
+        <v>0.0004095150632730854</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0003205279206814266</v>
+        <v>0.0003709557438262643</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0004678393751596925</v>
+        <v>0.0005735434685696171</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0003105988030204143</v>
+        <v>0.0005347242667994578</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0004902140386422679</v>
+        <v>0.000384624497531728</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003601120543684917</v>
+        <v>0.0004805164534270096</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0003665256312808782</v>
+        <v>0.0003286335072103115</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0004083912037834846</v>
+        <v>0.0003957412947618815</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0003275832573778863</v>
+        <v>0.0004097467691198372</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.000579243055099873</v>
+        <v>0.0003109836956851227</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0003737082135202577</v>
+        <v>0.000475927774542387</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0003093907212498651</v>
+        <v>0.0003564968453081912</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0003368340093266465</v>
+        <v>0.0004937930375333587</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.000342237586894838</v>
+        <v>0.000302903262674862</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0004326510149659388</v>
+        <v>0.0003208282798222245</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0004360590991631785</v>
+        <v>0.0003496922516456709</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.000408067617360663</v>
+        <v>0.000303609982124883</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.000429951388374822</v>
+        <v>0.0003135100698858585</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.000389285902118032</v>
+        <v>0.0003359914381303236</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002918693490577969</v>
+        <v>0.0004032076278403027</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.000518895831275544</v>
+        <v>0.0004623928712814746</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0003293814806129794</v>
+        <v>0.0003084242373173682</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0003547276953642053</v>
+        <v>0.000442088289579762</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0003846512267171357</v>
+        <v>0.000327079084363295</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0004146977751944</v>
+        <v>0.0003199112677181289</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0003072431017631322</v>
+        <v>0.0003144077571301625</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0003663232533633174</v>
+        <v>0.0003779936818862281</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0003991611605482016</v>
+        <v>0.0003867850935985816</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002886650147319279</v>
+        <v>0.0003368939540179008</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0003746448764804986</v>
+        <v>0.0004606159135796954</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0002972654384111279</v>
+        <v>0.0003151154023830661</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.00033305675196448</v>
+        <v>0.0003331232130702788</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0004066334508254725</v>
+        <v>0.0003341661748441536</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0003632508967126634</v>
+        <v>0.0003649064932813354</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0003089939846072463</v>
+        <v>0.0003867891558409861</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.000343448294951559</v>
+        <v>0.000328362068019529</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.000363475928867862</v>
+        <v>0.0003253555052609975</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003533632557734783</v>
+        <v>0.0004088075439467084</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.000292414980980664</v>
+        <v>0.0004387724484017938</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003153509804115888</v>
+        <v>0.0002860326559788644</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0003326847798381022</v>
+        <v>0.0003465685611905198</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0005002895825249464</v>
+        <v>0.0002667221433721247</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0002642747116122588</v>
+        <v>0.0003479341258784628</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0003589627558121929</v>
+        <v>0.0003555178361772238</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0002896144250444613</v>
+        <v>0.0002932803388872323</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0003572641224142073</v>
+        <v>0.0003737571109661661</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0003868763517533515</v>
+        <v>0.0003018887614364329</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0003523858676894685</v>
+        <v>0.0003260645537701404</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0003423926848035049</v>
+        <v>0.0002820782059664442</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002810372784499603</v>
+        <v>0.0003137919303643967</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0003753650406457152</v>
+        <v>0.0003792625504355856</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.000302885167786434</v>
+        <v>0.0003247710455666649</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0003681422094814479</v>
+        <v>0.0003608276310842484</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0003078187787075709</v>
+        <v>0.0004066960375465656</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003487270756292788</v>
+        <v>0.0003220188267021868</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0002928113897870316</v>
+        <v>0.0003246111600778879</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003949511862639605</v>
+        <v>0.0002394909751347277</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.000339510742179854</v>
+        <v>0.0002949401606128541</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003105365805571762</v>
+        <v>0.0002857542582707287</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002963505818303835</v>
+        <v>0.0003318983111256231</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0003543663384418282</v>
+        <v>0.0003871793143070523</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0003335271450077403</v>
+        <v>0.00029336432438784</v>
       </c>
     </row>
   </sheetData>
